--- a/data/trans_orig/P05B_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P05B_R-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>6425</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2392</v>
+        <v>2476</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14809</v>
+        <v>17083</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02353295436906743</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00876296368300352</v>
+        <v>0.009070064717613057</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05424416181503312</v>
+        <v>0.06257426385959215</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -765,19 +765,19 @@
         <v>3156</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>996</v>
+        <v>1022</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7566</v>
+        <v>9488</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01209858144993427</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.00381964064479269</v>
+        <v>0.003917563105369249</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02900720823698212</v>
+        <v>0.03637599571203057</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -786,19 +786,19 @@
         <v>9581</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4572</v>
+        <v>4235</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>18402</v>
+        <v>17865</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01794612097853133</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.008564702213126376</v>
+        <v>0.007933761783208386</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03447086218507191</v>
+        <v>0.03346371099362887</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>266585</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>258201</v>
+        <v>255927</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>270618</v>
+        <v>270534</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9764670456309326</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9457558381849672</v>
+        <v>0.9374257361404073</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9912370363169966</v>
+        <v>0.9909299352823869</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>242</v>
@@ -836,19 +836,19 @@
         <v>257682</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>253272</v>
+        <v>251350</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>259842</v>
+        <v>259816</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9879014185500657</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9709927917630179</v>
+        <v>0.9636240042879693</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9961803593552072</v>
+        <v>0.9960824368946307</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>508</v>
@@ -857,19 +857,19 @@
         <v>524267</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>515446</v>
+        <v>515983</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>529276</v>
+        <v>529613</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9820538790214687</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9655291378149281</v>
+        <v>0.9665362890063711</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9914352977868736</v>
+        <v>0.9920662382167916</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>17978</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10501</v>
+        <v>10832</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>28443</v>
+        <v>28568</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03646004961515746</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02129649837495894</v>
+        <v>0.02196888728576676</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05768508846710638</v>
+        <v>0.05793938741720769</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>28</v>
@@ -982,19 +982,19 @@
         <v>28053</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>18487</v>
+        <v>19356</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>39228</v>
+        <v>39792</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0556671296613533</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03668335763193074</v>
+        <v>0.03840904742791394</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07784091844794067</v>
+        <v>0.07895986849543518</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>44</v>
@@ -1003,19 +1003,19 @@
         <v>46031</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>34364</v>
+        <v>33795</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>61270</v>
+        <v>61337</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04616832974451646</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03446691370124652</v>
+        <v>0.03389583476178547</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06145311477403894</v>
+        <v>0.06151959602067079</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>475097</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>464632</v>
+        <v>464507</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>482574</v>
+        <v>482243</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9635399503848425</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9423149115328936</v>
+        <v>0.9420606125827922</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9787035016250411</v>
+        <v>0.9780311127142332</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>471</v>
@@ -1053,19 +1053,19 @@
         <v>475896</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>464721</v>
+        <v>464157</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>485462</v>
+        <v>484593</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9443328703386467</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9221590815520593</v>
+        <v>0.9210401315045649</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9633166423680691</v>
+        <v>0.961590952572086</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>920</v>
@@ -1074,19 +1074,19 @@
         <v>950993</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>935754</v>
+        <v>935687</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>962660</v>
+        <v>963229</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9538316702554835</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.938546885225961</v>
+        <v>0.9384804039793292</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9655330862987531</v>
+        <v>0.9661041652382145</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>11699</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6296</v>
+        <v>5880</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19069</v>
+        <v>19964</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03679526581629581</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01980112697756882</v>
+        <v>0.01849357610735965</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05997413641872418</v>
+        <v>0.06279048850521872</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>21</v>
@@ -1199,19 +1199,19 @@
         <v>21561</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>13798</v>
+        <v>13471</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>33988</v>
+        <v>31406</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06428229699319218</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04113617526277651</v>
+        <v>0.04016247882620246</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1013314553085492</v>
+        <v>0.09363531322902524</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>33</v>
@@ -1220,19 +1220,19 @@
         <v>33260</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>23423</v>
+        <v>23428</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>45662</v>
+        <v>45551</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05090616638571483</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03584992757211857</v>
+        <v>0.03585742218303138</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06988839527243812</v>
+        <v>0.06971747414091134</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>306248</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>298878</v>
+        <v>297983</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>311651</v>
+        <v>312067</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9632047341837042</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9400258635812757</v>
+        <v>0.9372095114947813</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9801988730224307</v>
+        <v>0.9815064238926403</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>314</v>
@@ -1270,19 +1270,19 @@
         <v>313851</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>301424</v>
+        <v>304006</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>321614</v>
+        <v>321941</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9357177030068078</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.898668544691451</v>
+        <v>0.9063646867709748</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9588638247372241</v>
+        <v>0.9598375211737975</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>611</v>
@@ -1291,19 +1291,19 @@
         <v>620099</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>607697</v>
+        <v>607808</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>629936</v>
+        <v>629931</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9490938336142851</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9301116047275619</v>
+        <v>0.9302825258590887</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9641500724278813</v>
+        <v>0.9641425778169691</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>9931</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5186</v>
+        <v>4717</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>19297</v>
+        <v>18082</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02768966209732113</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01445820467254023</v>
+        <v>0.01315264084279137</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05380274235059306</v>
+        <v>0.05041374952397773</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>11</v>
@@ -1416,19 +1416,19 @@
         <v>10242</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5412</v>
+        <v>5354</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>17885</v>
+        <v>18098</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02757224238140175</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01457048087344689</v>
+        <v>0.01441258594615585</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04814730432454372</v>
+        <v>0.04872157286245529</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>21</v>
@@ -1437,19 +1437,19 @@
         <v>20173</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>12768</v>
+        <v>12543</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>30546</v>
+        <v>30988</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02762992420338062</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01748743086236131</v>
+        <v>0.01717935411331258</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04183596383515862</v>
+        <v>0.04244126100212049</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>348740</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>339374</v>
+        <v>340589</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>353485</v>
+        <v>353954</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9723103379026788</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.946197257649407</v>
+        <v>0.9495862504760223</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9855417953274598</v>
+        <v>0.9868473591572087</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>373</v>
@@ -1487,19 +1487,19 @@
         <v>361214</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>353571</v>
+        <v>353358</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>366044</v>
+        <v>366102</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9724277576185982</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9518526956754559</v>
+        <v>0.9512784271375446</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9854295191265531</v>
+        <v>0.985587414053844</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>725</v>
@@ -1508,19 +1508,19 @@
         <v>709954</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>699581</v>
+        <v>699139</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>717359</v>
+        <v>717584</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9723700757966194</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9581640361648412</v>
+        <v>0.9575587389978794</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9825125691376387</v>
+        <v>0.9828206458866873</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>15208</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8927</v>
+        <v>9077</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>23678</v>
+        <v>24488</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07480089187654622</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04391093889531123</v>
+        <v>0.04464881315645532</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1164621406227385</v>
+        <v>0.1204460440952079</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>20</v>
@@ -1633,19 +1633,19 @@
         <v>20041</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>13172</v>
+        <v>12860</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>29954</v>
+        <v>30376</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09726652381867475</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06392985714938106</v>
+        <v>0.06241370864724584</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.145379064132643</v>
+        <v>0.1474267271954664</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>36</v>
@@ -1654,19 +1654,19 @@
         <v>35249</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>24298</v>
+        <v>25402</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>47254</v>
+        <v>46926</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08610878069856048</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05935712697557445</v>
+        <v>0.06205535420966612</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1154355537598484</v>
+        <v>0.1146343949628491</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>188100</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>179630</v>
+        <v>178820</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>194381</v>
+        <v>194231</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9251991081234537</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8835378593772615</v>
+        <v>0.8795539559047929</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9560890611046886</v>
+        <v>0.955351186843545</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>177</v>
@@ -1704,19 +1704,19 @@
         <v>186003</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>176090</v>
+        <v>175668</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>192872</v>
+        <v>193184</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9027334761813253</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8546209358673568</v>
+        <v>0.8525732728045335</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9360701428506187</v>
+        <v>0.9375862913527541</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>367</v>
@@ -1725,19 +1725,19 @@
         <v>374103</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>362098</v>
+        <v>362426</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>385054</v>
+        <v>383950</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9138912193014396</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8845644462401518</v>
+        <v>0.8853656050371511</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9406428730244255</v>
+        <v>0.937944645790334</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>2915</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>873</v>
+        <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8797</v>
+        <v>8049</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01076460738302784</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.00322316209540526</v>
+        <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03248318025308633</v>
+        <v>0.02972312062976641</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>5</v>
@@ -1850,19 +1850,19 @@
         <v>5227</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2100</v>
+        <v>1860</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>11961</v>
+        <v>11342</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01879286223720131</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.007551804725237649</v>
+        <v>0.006687011203042762</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04300444774126921</v>
+        <v>0.04077656835136952</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>8</v>
@@ -1871,19 +1871,19 @@
         <v>8142</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>3812</v>
+        <v>3992</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>15115</v>
+        <v>15786</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01483235592689447</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.006944571021745237</v>
+        <v>0.007272254945367851</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02753326401475386</v>
+        <v>0.02875716952364875</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>267896</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>262014</v>
+        <v>262762</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>269938</v>
+        <v>270811</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9892353926169721</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9675168197469136</v>
+        <v>0.9702768793702338</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9967768379045947</v>
+        <v>1</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>265</v>
@@ -1921,19 +1921,19 @@
         <v>272917</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>266183</v>
+        <v>266802</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>276044</v>
+        <v>276284</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9812071377627987</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9569955522587308</v>
+        <v>0.9592234316486303</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9924481952747624</v>
+        <v>0.9933129887969571</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>528</v>
@@ -1942,19 +1942,19 @@
         <v>540813</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>533840</v>
+        <v>533169</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>545143</v>
+        <v>544963</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9851676440731055</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.972466735985246</v>
+        <v>0.9712428304763512</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9930554289782547</v>
+        <v>0.9927277450546321</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>12970</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>7608</v>
+        <v>7553</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>22013</v>
+        <v>22437</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02111636752974958</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01238692861762687</v>
+        <v>0.01229763826451545</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03583898594321649</v>
+        <v>0.03653042947319639</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>39</v>
@@ -2067,19 +2067,19 @@
         <v>41286</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>29666</v>
+        <v>29388</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>55812</v>
+        <v>55212</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06468977292603036</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04648203750128098</v>
+        <v>0.04604698189540565</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08745006138558627</v>
+        <v>0.08650994057750364</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>53</v>
@@ -2088,19 +2088,19 @@
         <v>54256</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>41162</v>
+        <v>41985</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>71772</v>
+        <v>71591</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04332079869002611</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03286591896177116</v>
+        <v>0.03352308815583436</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05730655522449819</v>
+        <v>0.05716177145520546</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>601236</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>592193</v>
+        <v>591769</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>606598</v>
+        <v>606653</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9788836324702505</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9641610140567836</v>
+        <v>0.9634695705268036</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9876130713823731</v>
+        <v>0.9877023617354848</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>582</v>
@@ -2138,19 +2138,19 @@
         <v>596933</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>582407</v>
+        <v>583007</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>608553</v>
+        <v>608831</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9353102270739696</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9125499386144137</v>
+        <v>0.9134900594224964</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.953517962498719</v>
+        <v>0.9539530181045944</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1165</v>
@@ -2159,19 +2159,19 @@
         <v>1198169</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1180653</v>
+        <v>1180834</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1211263</v>
+        <v>1210440</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9566792013099739</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9426934447755019</v>
+        <v>0.9428382285447937</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.967134081038229</v>
+        <v>0.9664769118441654</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>19232</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>11060</v>
+        <v>11701</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>30345</v>
+        <v>31149</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02594020687839937</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01491820240692635</v>
+        <v>0.01578203634942488</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04092939449392047</v>
+        <v>0.04201392089134768</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>28</v>
@@ -2284,19 +2284,19 @@
         <v>28715</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>19324</v>
+        <v>18571</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>40543</v>
+        <v>39953</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03664930646696004</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02466352262934801</v>
+        <v>0.02370221614443565</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05174468517133029</v>
+        <v>0.05099256838266646</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>46</v>
@@ -2305,19 +2305,19 @@
         <v>47947</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>35048</v>
+        <v>35045</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>63844</v>
+        <v>62369</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03144263967114085</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02298379608462074</v>
+        <v>0.02298146086046877</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04186733258438158</v>
+        <v>0.04090051956452218</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>722164</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>711051</v>
+        <v>710247</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>730336</v>
+        <v>729695</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9740597931216006</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9590706055060801</v>
+        <v>0.9579860791086524</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9850817975930737</v>
+        <v>0.9842179636505751</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>717</v>
@@ -2355,19 +2355,19 @@
         <v>754796</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>742968</v>
+        <v>743558</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>764187</v>
+        <v>764940</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9633506935330399</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.948255314828669</v>
+        <v>0.9490074316173327</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9753364773706517</v>
+        <v>0.9762977838555641</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1433</v>
@@ -2376,19 +2376,19 @@
         <v>1476960</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1461063</v>
+        <v>1462538</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1489859</v>
+        <v>1489862</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9685573603288592</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9581326674156185</v>
+        <v>0.9590994804354779</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9770162039153794</v>
+        <v>0.9770185391395314</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>96357</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>78087</v>
+        <v>78236</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>116517</v>
+        <v>119001</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02944522377167277</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02386214542493052</v>
+        <v>0.02390753992748186</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03560572440267813</v>
+        <v>0.03636472077989468</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>155</v>
@@ -2501,19 +2501,19 @@
         <v>158282</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>134148</v>
+        <v>135364</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>186030</v>
+        <v>185064</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.04686257438403699</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.03971732864200321</v>
+        <v>0.04007718174581351</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.05507797816365619</v>
+        <v>0.05479194402787485</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>249</v>
@@ -2522,19 +2522,19 @@
         <v>254639</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>226357</v>
+        <v>225176</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>288104</v>
+        <v>286481</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.03829160054035863</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0340387241217887</v>
+        <v>0.03386111568779577</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.04332391961276835</v>
+        <v>0.04307990637625513</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>3176067</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3155907</v>
+        <v>3153423</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3194337</v>
+        <v>3194188</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9705547762283272</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9643942755973219</v>
+        <v>0.9636352792201053</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9761378545750695</v>
+        <v>0.9760924600725183</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3141</v>
@@ -2572,19 +2572,19 @@
         <v>3219291</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3191543</v>
+        <v>3192509</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3243425</v>
+        <v>3242209</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.953137425615963</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9449220218363439</v>
+        <v>0.9452080559721253</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9602826713579969</v>
+        <v>0.9599228182541868</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6257</v>
@@ -2593,19 +2593,19 @@
         <v>6395358</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6361893</v>
+        <v>6363516</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6423640</v>
+        <v>6424821</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9617083994596414</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9566760803872317</v>
+        <v>0.9569200936237447</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9659612758782113</v>
+        <v>0.9661388843122042</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>6753</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2934</v>
+        <v>2584</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15123</v>
+        <v>14946</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02322217880798597</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0100911941240645</v>
+        <v>0.008887431154975634</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05200756928826614</v>
+        <v>0.05139921459097797</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -2962,19 +2962,19 @@
         <v>9362</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4383</v>
+        <v>5056</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16920</v>
+        <v>17505</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03334716414098204</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01561327003863436</v>
+        <v>0.01801062752007269</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0602699544092445</v>
+        <v>0.06235412424495053</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>15</v>
@@ -2983,19 +2983,19 @@
         <v>16115</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>9736</v>
+        <v>9418</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>27205</v>
+        <v>26454</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02819572461841111</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01703535531438602</v>
+        <v>0.01647893236031614</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04760053638869015</v>
+        <v>0.04628600286325423</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>284029</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>275659</v>
+        <v>275836</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>287848</v>
+        <v>288198</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9767778211920141</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9479924307117339</v>
+        <v>0.9486007854090219</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9899088058759355</v>
+        <v>0.9911125688450244</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>241</v>
@@ -3033,19 +3033,19 @@
         <v>271379</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>263821</v>
+        <v>263236</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>276358</v>
+        <v>275685</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.966652835859018</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9397300455907555</v>
+        <v>0.9376458757550493</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9843867299613657</v>
+        <v>0.9819893724799272</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>513</v>
@@ -3054,19 +3054,19 @@
         <v>555408</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>544318</v>
+        <v>545069</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>561787</v>
+        <v>562105</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9718042753815889</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9523994636113104</v>
+        <v>0.953713997136746</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9829646446856141</v>
+        <v>0.9835210676396838</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>24802</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15401</v>
+        <v>16068</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>36768</v>
+        <v>38301</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04906098354495719</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03046610830409774</v>
+        <v>0.03178401216641713</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0727327242450435</v>
+        <v>0.07576543745585598</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>19</v>
@@ -3179,19 +3179,19 @@
         <v>20893</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>13172</v>
+        <v>12518</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>31685</v>
+        <v>31919</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04005357513474447</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02525186570007493</v>
+        <v>0.02399732825991874</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0607432132976466</v>
+        <v>0.06119113313478459</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>41</v>
@@ -3200,19 +3200,19 @@
         <v>45694</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>33241</v>
+        <v>33221</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>62349</v>
+        <v>60746</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04448670850697378</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03236277452049868</v>
+        <v>0.0323425093826011</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06070073296680839</v>
+        <v>0.05914042722370334</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>480725</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>468759</v>
+        <v>467226</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>490126</v>
+        <v>489459</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9509390164550429</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9272672757549566</v>
+        <v>0.9242345625441439</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9695338916959023</v>
+        <v>0.9682159878335823</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>459</v>
@@ -3250,19 +3250,19 @@
         <v>500729</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>489937</v>
+        <v>489703</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>508450</v>
+        <v>509104</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9599464248652555</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9392567867023535</v>
+        <v>0.9388088668652156</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.974748134299925</v>
+        <v>0.9760026717400813</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>909</v>
@@ -3271,19 +3271,19 @@
         <v>981455</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>964800</v>
+        <v>966403</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>993908</v>
+        <v>993928</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9555132914930262</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9392992670331917</v>
+        <v>0.9408595727762967</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9676372254795013</v>
+        <v>0.9676574906173991</v>
       </c>
     </row>
     <row r="9">
@@ -3391,7 +3391,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5042</v>
+        <v>5635</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.002891176380547452</v>
@@ -3400,7 +3400,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01478466879732714</v>
+        <v>0.01652314594376689</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1</v>
@@ -3412,7 +3412,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>4605</v>
+        <v>4588</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.00148248291092192</v>
@@ -3421,7 +3421,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.00692383480751543</v>
+        <v>0.006898788701247469</v>
       </c>
     </row>
     <row r="11">
@@ -3451,7 +3451,7 @@
         <v>340034</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>335978</v>
+        <v>335385</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>341020</v>
@@ -3460,7 +3460,7 @@
         <v>0.9971088236194525</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9852153312026705</v>
+        <v>0.9834768540562326</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -3472,7 +3472,7 @@
         <v>664080</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>660461</v>
+        <v>660478</v>
       </c>
       <c r="T11" s="5" t="n">
         <v>665066</v>
@@ -3481,7 +3481,7 @@
         <v>0.9985175170890781</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9930761651924851</v>
+        <v>0.9931012112987517</v>
       </c>
       <c r="W11" s="6" t="n">
         <v>1</v>
@@ -3576,19 +3576,19 @@
         <v>5240</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1959</v>
+        <v>2003</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11647</v>
+        <v>11716</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01401254486515785</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.00523810407386687</v>
+        <v>0.005355728808393958</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03114233127827914</v>
+        <v>0.03132857926691427</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>8</v>
@@ -3597,19 +3597,19 @@
         <v>7990</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3787</v>
+        <v>3726</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>15064</v>
+        <v>15331</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02059226828187781</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.009760461946499105</v>
+        <v>0.009603580730827229</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03882475696466076</v>
+        <v>0.03951449164901592</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>13</v>
@@ -3618,19 +3618,19 @@
         <v>13230</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>7221</v>
+        <v>7062</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>22026</v>
+        <v>22260</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01736290726128664</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.009476984885771991</v>
+        <v>0.009268542037823889</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0289063365818103</v>
+        <v>0.02921395282436134</v>
       </c>
     </row>
     <row r="14">
@@ -3647,19 +3647,19 @@
         <v>368742</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>362335</v>
+        <v>362266</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>372023</v>
+        <v>371979</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9859874551348421</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9688576687217209</v>
+        <v>0.9686714207330859</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9947618959261332</v>
+        <v>0.994644271191606</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>362</v>
@@ -3668,19 +3668,19 @@
         <v>380005</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>372931</v>
+        <v>372664</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>384208</v>
+        <v>384269</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9794077317181222</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9611752430353392</v>
+        <v>0.9604855083509836</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9902395380535008</v>
+        <v>0.9903964192691728</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>701</v>
@@ -3689,19 +3689,19 @@
         <v>748747</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>739951</v>
+        <v>739717</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>754756</v>
+        <v>754915</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9826370927387134</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9710936634181897</v>
+        <v>0.9707860471756382</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.990523015114228</v>
+        <v>0.990731457962176</v>
       </c>
     </row>
     <row r="15">
@@ -3793,19 +3793,19 @@
         <v>5036</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1865</v>
+        <v>1859</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10650</v>
+        <v>10814</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02368357135084002</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008773436227573412</v>
+        <v>0.008744820157266978</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05009105120835339</v>
+        <v>0.05086012350158552</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -3814,19 +3814,19 @@
         <v>6373</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2004</v>
+        <v>2781</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13717</v>
+        <v>13632</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02902364171183043</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.009124780298076585</v>
+        <v>0.01266634753376725</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06246694313613003</v>
+        <v>0.06208078806437908</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>11</v>
@@ -3835,19 +3835,19 @@
         <v>11409</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5979</v>
+        <v>5519</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>20142</v>
+        <v>19643</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02639668302560062</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01383362176780885</v>
+        <v>0.01276871864494071</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04660245150748602</v>
+        <v>0.04544754211077971</v>
       </c>
     </row>
     <row r="17">
@@ -3864,19 +3864,19 @@
         <v>207582</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>201968</v>
+        <v>201804</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>210753</v>
+        <v>210759</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.97631642864916</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9499089487916459</v>
+        <v>0.9491398764984136</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9912265637724266</v>
+        <v>0.991255179842733</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>206</v>
@@ -3885,19 +3885,19 @@
         <v>213218</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>205874</v>
+        <v>205959</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>217587</v>
+        <v>216810</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9709763582881695</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9375330568638697</v>
+        <v>0.9379192119356198</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9908752197019234</v>
+        <v>0.9873336524662328</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>397</v>
@@ -3906,19 +3906,19 @@
         <v>420800</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>412067</v>
+        <v>412566</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>426230</v>
+        <v>426690</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9736033169743994</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9533975484925139</v>
+        <v>0.9545524578892202</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9861663782321911</v>
+        <v>0.9872312813550593</v>
       </c>
     </row>
     <row r="18">
@@ -4013,7 +4013,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6962</v>
+        <v>6249</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.007345763418605056</v>
@@ -4022,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02540878252088257</v>
+        <v>0.02280978262938515</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -4034,7 +4034,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>6396</v>
+        <v>5488</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.003897141048751503</v>
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02292400440365711</v>
+        <v>0.01967205253303124</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>3</v>
@@ -4055,16 +4055,16 @@
         <v>955</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>8964</v>
+        <v>9074</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.00560581298329731</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.001727738145594888</v>
+        <v>0.001727077481386897</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01621029869178288</v>
+        <v>0.01640894473072765</v>
       </c>
     </row>
     <row r="20">
@@ -4081,7 +4081,7 @@
         <v>271968</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>267019</v>
+        <v>267732</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>273981</v>
@@ -4090,7 +4090,7 @@
         <v>0.992654236581395</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9745912174791174</v>
+        <v>0.977190217370615</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -4102,7 +4102,7 @@
         <v>277909</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>272600</v>
+        <v>273508</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>278996</v>
@@ -4111,7 +4111,7 @@
         <v>0.9961028589512485</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9770759955963454</v>
+        <v>0.9803279474669688</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -4123,7 +4123,7 @@
         <v>549877</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>544013</v>
+        <v>543903</v>
       </c>
       <c r="T20" s="5" t="n">
         <v>552022</v>
@@ -4132,10 +4132,10 @@
         <v>0.9943941870167027</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9837897013082162</v>
+        <v>0.9835910552692727</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9982722618544051</v>
+        <v>0.9982729225186131</v>
       </c>
     </row>
     <row r="21">
@@ -4227,19 +4227,19 @@
         <v>4721</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1844</v>
+        <v>1832</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>10605</v>
+        <v>10985</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.007146814180898493</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.002790856258330982</v>
+        <v>0.002773760257997865</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01605366181465554</v>
+        <v>0.01662882620878046</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4</v>
@@ -4248,19 +4248,19 @@
         <v>5696</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1835</v>
+        <v>1037</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>15025</v>
+        <v>14114</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.008221732861056283</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.002648051274356477</v>
+        <v>0.001497132404685926</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02168695067519597</v>
+        <v>0.02037147723994661</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>9</v>
@@ -4269,19 +4269,19 @@
         <v>10417</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4923</v>
+        <v>5003</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>19654</v>
+        <v>19714</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.007697075551241736</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.003637484630392149</v>
+        <v>0.003696292089193243</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01452198160042093</v>
+        <v>0.01456604961314413</v>
       </c>
     </row>
     <row r="23">
@@ -4298,19 +4298,19 @@
         <v>655871</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>649987</v>
+        <v>649607</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>658748</v>
+        <v>658760</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9928531858191015</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9839463381853448</v>
+        <v>0.9833711737912175</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.997209143741669</v>
+        <v>0.9972262397420021</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>631</v>
@@ -4319,19 +4319,19 @@
         <v>687134</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>677805</v>
+        <v>678716</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>690995</v>
+        <v>691793</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9917782671389437</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.978313049324804</v>
+        <v>0.9796285227600533</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9973519487256436</v>
+        <v>0.998502867595314</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1242</v>
@@ -4340,19 +4340,19 @@
         <v>1343005</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1333768</v>
+        <v>1333708</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1348499</v>
+        <v>1348419</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9923029244487582</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9854780183995792</v>
+        <v>0.9854339503868559</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9963625153696078</v>
+        <v>0.9963037079108068</v>
       </c>
     </row>
     <row r="24">
@@ -4444,19 +4444,19 @@
         <v>7992</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3784</v>
+        <v>3019</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>16640</v>
+        <v>16194</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01036212798627685</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.004905701303685722</v>
+        <v>0.003914486766839072</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02157412138126617</v>
+        <v>0.02099614341046912</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>5</v>
@@ -4465,19 +4465,19 @@
         <v>5329</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1196</v>
+        <v>2062</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>11089</v>
+        <v>11850</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.006508325822161511</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.001460291221891922</v>
+        <v>0.002518463394611784</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01354326986406626</v>
+        <v>0.01447194506648188</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>12</v>
@@ -4486,19 +4486,19 @@
         <v>13321</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>7106</v>
+        <v>7284</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>23737</v>
+        <v>23527</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.008377641505908594</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.004468746619726708</v>
+        <v>0.004580853158105034</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01492830536544502</v>
+        <v>0.01479643523488638</v>
       </c>
     </row>
     <row r="26">
@@ -4515,19 +4515,19 @@
         <v>763281</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>754633</v>
+        <v>755079</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>767489</v>
+        <v>768254</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9896378720137231</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9784258786187335</v>
+        <v>0.9790038565895309</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9950942986963143</v>
+        <v>0.996085513233161</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>747</v>
@@ -4536,19 +4536,19 @@
         <v>813463</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>807703</v>
+        <v>806942</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>817596</v>
+        <v>816730</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9934916741778385</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9864567301359347</v>
+        <v>0.9855280549335181</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9985397087781082</v>
+        <v>0.9974815366053882</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1449</v>
@@ -4557,19 +4557,19 @@
         <v>1576745</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1566329</v>
+        <v>1566539</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1582960</v>
+        <v>1582782</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9916223584940914</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9850716946345549</v>
+        <v>0.9852035647651144</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9955312533802733</v>
+        <v>0.995419146841895</v>
       </c>
     </row>
     <row r="27">
@@ -4661,19 +4661,19 @@
         <v>56556</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>42109</v>
+        <v>42446</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>73690</v>
+        <v>72657</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01657172608340086</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01233855453768955</v>
+        <v>0.01243732603169585</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02159212489357603</v>
+        <v>0.02128966962974415</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>53</v>
@@ -4682,19 +4682,19 @@
         <v>57716</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>44918</v>
+        <v>42467</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>75402</v>
+        <v>74511</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01629671286977166</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01268292336441369</v>
+        <v>0.01199103059714544</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02129048302924894</v>
+        <v>0.0210389663153802</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>105</v>
@@ -4703,19 +4703,19 @@
         <v>114272</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>93207</v>
+        <v>94538</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>138112</v>
+        <v>136963</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01643167304727566</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0134025999914357</v>
+        <v>0.0135940503269317</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01985962742272847</v>
+        <v>0.01969453237667335</v>
       </c>
     </row>
     <row r="29">
@@ -4732,19 +4732,19 @@
         <v>3356246</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3339112</v>
+        <v>3340145</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3370693</v>
+        <v>3370356</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9834282739165991</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9784078751064241</v>
+        <v>0.9787103303702559</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9876614454623105</v>
+        <v>0.9875626739683043</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3229</v>
@@ -4753,19 +4753,19 @@
         <v>3483871</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3466185</v>
+        <v>3467076</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3496669</v>
+        <v>3499120</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9837032871302284</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9787095169707511</v>
+        <v>0.9789610336846197</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9873170766355863</v>
+        <v>0.9880089694028547</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6372</v>
@@ -4774,19 +4774,19 @@
         <v>6840117</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6816277</v>
+        <v>6817426</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6861182</v>
+        <v>6859851</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9835683269527243</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9801403725772716</v>
+        <v>0.9803054676233267</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9865974000085643</v>
+        <v>0.9864059496730684</v>
       </c>
     </row>
     <row r="30">
@@ -5122,19 +5122,19 @@
         <v>15718</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8534</v>
+        <v>8722</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>25796</v>
+        <v>25836</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05368575177676786</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02914850028643028</v>
+        <v>0.02979102926424984</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08811184200674624</v>
+        <v>0.0882467565973625</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -5143,19 +5143,19 @@
         <v>13978</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7579</v>
+        <v>7978</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>22563</v>
+        <v>23272</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04841648742291223</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02625245082613224</v>
+        <v>0.02763530669429321</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07815229154773319</v>
+        <v>0.08060774000498042</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>27</v>
@@ -5164,19 +5164,19 @@
         <v>29696</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>19854</v>
+        <v>19164</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>41491</v>
+        <v>41648</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05106954323503554</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03414397370609003</v>
+        <v>0.03295723823899087</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07135473849404371</v>
+        <v>0.07162576745706217</v>
       </c>
     </row>
     <row r="5">
@@ -5193,19 +5193,19 @@
         <v>277051</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>266973</v>
+        <v>266933</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>284235</v>
+        <v>284047</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9463142482232322</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9118881579932538</v>
+        <v>0.9117532434026375</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9708514997135698</v>
+        <v>0.9702089707357504</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>264</v>
@@ -5214,19 +5214,19 @@
         <v>274725</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>266140</v>
+        <v>265431</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>281124</v>
+        <v>280725</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9515835125770877</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9218477084522668</v>
+        <v>0.9193922599950196</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9737475491738677</v>
+        <v>0.9723646933057069</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>515</v>
@@ -5235,19 +5235,19 @@
         <v>551776</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>539981</v>
+        <v>539824</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>561618</v>
+        <v>562308</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9489304567649645</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9286452615059563</v>
+        <v>0.9283742325429374</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9658560262939102</v>
+        <v>0.9670427617610089</v>
       </c>
     </row>
     <row r="6">
@@ -5339,19 +5339,19 @@
         <v>13330</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7105</v>
+        <v>7235</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22266</v>
+        <v>22431</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02652390691927879</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01413720856330953</v>
+        <v>0.01439493264165942</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04430362168890557</v>
+        <v>0.04463313924454983</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>23</v>
@@ -5360,19 +5360,19 @@
         <v>25197</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>16692</v>
+        <v>16661</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>37376</v>
+        <v>37600</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04817088590554895</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03190994137594795</v>
+        <v>0.03185055024726971</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07145282800601883</v>
+        <v>0.07188100992248433</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>35</v>
@@ -5381,19 +5381,19 @@
         <v>38528</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>26994</v>
+        <v>27199</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>52122</v>
+        <v>52601</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03756381820039953</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02631840590045691</v>
+        <v>0.02651833781169215</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05081852950619491</v>
+        <v>0.05128535931225318</v>
       </c>
     </row>
     <row r="8">
@@ -5410,19 +5410,19 @@
         <v>489245</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>480309</v>
+        <v>480144</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>495470</v>
+        <v>495340</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9734760930807212</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9556963783110943</v>
+        <v>0.9553668607554502</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9858627914366904</v>
+        <v>0.9856050673583406</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>461</v>
@@ -5431,19 +5431,19 @@
         <v>497887</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>485708</v>
+        <v>485484</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>506392</v>
+        <v>506423</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.951829114094451</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9285471719939812</v>
+        <v>0.9281189900775156</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9680900586240521</v>
+        <v>0.9681494497527303</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>924</v>
@@ -5452,19 +5452,19 @@
         <v>987131</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>973537</v>
+        <v>973058</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>998665</v>
+        <v>998460</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9624361817996004</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9491814704938053</v>
+        <v>0.9487146406877469</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9736815940995432</v>
+        <v>0.973481662188308</v>
       </c>
     </row>
     <row r="9">
@@ -5559,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8637</v>
+        <v>10677</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.005159055488116141</v>
@@ -5568,7 +5568,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02718464356623731</v>
+        <v>0.03360673104357786</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -5580,7 +5580,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7480</v>
+        <v>7935</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.006347929732292214</v>
@@ -5589,7 +5589,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02224290212818414</v>
+        <v>0.02359528182045609</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3</v>
@@ -5598,19 +5598,19 @@
         <v>3774</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>10028</v>
+        <v>11069</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.005770406691371126</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001377081424415963</v>
+        <v>0.001374181925174172</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0153326310509731</v>
+        <v>0.01692487524451405</v>
       </c>
     </row>
     <row r="11">
@@ -5627,7 +5627,7 @@
         <v>316061</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>309063</v>
+        <v>307023</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>317700</v>
@@ -5636,7 +5636,7 @@
         <v>0.9948409445118839</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.972815356433762</v>
+        <v>0.9663932689564226</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -5648,7 +5648,7 @@
         <v>334174</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>328829</v>
+        <v>328374</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>336309</v>
@@ -5657,7 +5657,7 @@
         <v>0.9936520702677077</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9777570978718167</v>
+        <v>0.976404718179544</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -5669,19 +5669,19 @@
         <v>650235</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>643981</v>
+        <v>642940</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>653108</v>
+        <v>653110</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9942295933086289</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9846673689490271</v>
+        <v>0.9830751247554861</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9986229185755841</v>
+        <v>0.9986258180748259</v>
       </c>
     </row>
     <row r="12">
@@ -5773,19 +5773,19 @@
         <v>4537</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1765</v>
+        <v>1592</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10025</v>
+        <v>9271</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01232969033681382</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.004795642241622223</v>
+        <v>0.004326177211959098</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02724327702418</v>
+        <v>0.02519408133094216</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -5794,19 +5794,19 @@
         <v>11851</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5934</v>
+        <v>5949</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>20781</v>
+        <v>21960</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03116786472394268</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01560577548510031</v>
+        <v>0.01564662567500637</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05465573498202822</v>
+        <v>0.0577577503001574</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>15</v>
@@ -5815,19 +5815,19 @@
         <v>16388</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>10198</v>
+        <v>9670</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>28228</v>
+        <v>27046</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02190278282009379</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01363041180460411</v>
+        <v>0.01292448357088068</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03772761895514713</v>
+        <v>0.03614766448686462</v>
       </c>
     </row>
     <row r="14">
@@ -5844,19 +5844,19 @@
         <v>363446</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>357958</v>
+        <v>358712</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>366218</v>
+        <v>366391</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9876703096631861</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9727567229758201</v>
+        <v>0.9748059186690579</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9952043577583778</v>
+        <v>0.9956738227880408</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>341</v>
@@ -5865,19 +5865,19 @@
         <v>368365</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>359435</v>
+        <v>358256</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>374282</v>
+        <v>374267</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9688321352760573</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9453442650179719</v>
+        <v>0.9422422496998426</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9843942245148998</v>
+        <v>0.9843533743249936</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>688</v>
@@ -5886,19 +5886,19 @@
         <v>731810</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>719970</v>
+        <v>721152</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>738000</v>
+        <v>738528</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9780972171799062</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.962272381044853</v>
+        <v>0.9638523355131358</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.986369588195396</v>
+        <v>0.9870755164291193</v>
       </c>
     </row>
     <row r="15">
@@ -6003,19 +6003,19 @@
         <v>2905</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>881</v>
+        <v>869</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7930</v>
+        <v>7559</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01328819116936292</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004029251849585636</v>
+        <v>0.003973944831860674</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03627907506873702</v>
+        <v>0.03457912149019227</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3</v>
@@ -6024,19 +6024,19 @@
         <v>2905</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>8145</v>
+        <v>7990</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.006757961356942311</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.002053578698925566</v>
+        <v>0.002057529904377307</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01894932438506897</v>
+        <v>0.01858858633071355</v>
       </c>
     </row>
     <row r="17">
@@ -6066,19 +6066,19 @@
         <v>215682</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>210657</v>
+        <v>211028</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>217706</v>
+        <v>217718</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9867118088306371</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9637209249312634</v>
+        <v>0.9654208785098076</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9959707481504143</v>
+        <v>0.9960260551681394</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>432</v>
@@ -6087,19 +6087,19 @@
         <v>426903</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>421663</v>
+        <v>421818</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>428925</v>
+        <v>428924</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9932420386430577</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9810506756149313</v>
+        <v>0.9814114136692867</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9979464213010745</v>
+        <v>0.9979424700956226</v>
       </c>
     </row>
     <row r="18">
@@ -6194,7 +6194,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>3837</v>
+        <v>4683</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.00313813463068386</v>
@@ -6203,7 +6203,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01458236598607071</v>
+        <v>0.01779953052829945</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -6215,7 +6215,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5835</v>
+        <v>4671</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.003735987147483847</v>
@@ -6224,7 +6224,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0215332356647786</v>
+        <v>0.01723702089922047</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>2</v>
@@ -6236,7 +6236,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>6541</v>
+        <v>7607</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.003441462334860039</v>
@@ -6245,7 +6245,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01224605474102507</v>
+        <v>0.01424185044419176</v>
       </c>
     </row>
     <row r="20">
@@ -6262,7 +6262,7 @@
         <v>262297</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>259286</v>
+        <v>258440</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>263123</v>
@@ -6271,7 +6271,7 @@
         <v>0.9968618653693161</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9854176340139302</v>
+        <v>0.9822004694716997</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -6283,7 +6283,7 @@
         <v>269975</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>265152</v>
+        <v>266316</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>270987</v>
@@ -6292,7 +6292,7 @@
         <v>0.9962640128525162</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9784667643352246</v>
+        <v>0.9827629791007785</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -6304,7 +6304,7 @@
         <v>532272</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>527569</v>
+        <v>526503</v>
       </c>
       <c r="T20" s="5" t="n">
         <v>534110</v>
@@ -6313,7 +6313,7 @@
         <v>0.9965585376651399</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.987753945258975</v>
+        <v>0.9857581495558088</v>
       </c>
       <c r="W20" s="6" t="n">
         <v>1</v>
@@ -6408,19 +6408,19 @@
         <v>8072</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3186</v>
+        <v>3054</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>17279</v>
+        <v>16127</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0123862349419372</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.004888370331133017</v>
+        <v>0.004686795752292919</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02651510976827139</v>
+        <v>0.02474718512781656</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>11</v>
@@ -6429,19 +6429,19 @@
         <v>11742</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>6075</v>
+        <v>6287</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>19731</v>
+        <v>21127</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01710553579757955</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.00885009060249901</v>
+        <v>0.009158220206140582</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02874281311713606</v>
+        <v>0.03077708683319879</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>18</v>
@@ -6450,19 +6450,19 @@
         <v>19814</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>11808</v>
+        <v>11897</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>30815</v>
+        <v>30155</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01480721442768698</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.00882421044835564</v>
+        <v>0.008890650799306088</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02302858631429642</v>
+        <v>0.02253525275410458</v>
       </c>
     </row>
     <row r="23">
@@ -6479,19 +6479,19 @@
         <v>643609</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>634402</v>
+        <v>635554</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>648495</v>
+        <v>648627</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9876137650580628</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9734848902317286</v>
+        <v>0.9752528148721835</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.995111629668867</v>
+        <v>0.9953132042477072</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>631</v>
@@ -6500,19 +6500,19 @@
         <v>674718</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>666729</v>
+        <v>665333</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>680385</v>
+        <v>680173</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9828944642024204</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9712571868828637</v>
+        <v>0.9692229131668011</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9911499093975009</v>
+        <v>0.9908417797938593</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1200</v>
@@ -6521,19 +6521,19 @@
         <v>1318326</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1307325</v>
+        <v>1307985</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1326332</v>
+        <v>1326243</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.985192785572313</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9769714136857035</v>
+        <v>0.9774647472458954</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9911757895516443</v>
+        <v>0.9911093492006938</v>
       </c>
     </row>
     <row r="24">
@@ -6628,7 +6628,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>7317</v>
+        <v>6622</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.002443500669862415</v>
@@ -6637,7 +6637,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.009398386291909396</v>
+        <v>0.008505518527313176</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>6</v>
@@ -6646,19 +6646,19 @@
         <v>6626</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2367</v>
+        <v>2388</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>14220</v>
+        <v>14604</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.008020054895430045</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.00286454778284302</v>
+        <v>0.002890110365615985</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0172125212169734</v>
+        <v>0.01767721032534367</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>8</v>
@@ -6667,19 +6667,19 @@
         <v>8528</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3997</v>
+        <v>4259</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>15935</v>
+        <v>17528</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.005314455703028672</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.002490823585068583</v>
+        <v>0.002654073949744958</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.009929686812957172</v>
+        <v>0.01092261103029329</v>
       </c>
     </row>
     <row r="26">
@@ -6696,7 +6696,7 @@
         <v>776681</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>771266</v>
+        <v>771961</v>
       </c>
       <c r="F26" s="5" t="n">
         <v>778583</v>
@@ -6705,7 +6705,7 @@
         <v>0.9975564993301376</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9906016137080902</v>
+        <v>0.9914944814726868</v>
       </c>
       <c r="I26" s="6" t="n">
         <v>1</v>
@@ -6717,19 +6717,19 @@
         <v>819541</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>811947</v>
+        <v>811563</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>823800</v>
+        <v>823779</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.99197994510457</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9827874787830266</v>
+        <v>0.9823227896746564</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.997135452217157</v>
+        <v>0.9971098896343841</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1497</v>
@@ -6738,19 +6738,19 @@
         <v>1596222</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1588815</v>
+        <v>1587222</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1600753</v>
+        <v>1600491</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9946855442969713</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9900703131870426</v>
+        <v>0.9890773889697067</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9975091764149313</v>
+        <v>0.997345926050255</v>
       </c>
     </row>
     <row r="27">
@@ -6842,19 +6842,19 @@
         <v>46024</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>33815</v>
+        <v>33151</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>60447</v>
+        <v>62385</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01359390352139714</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.009987750208644876</v>
+        <v>0.009791737424753951</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01785403474650687</v>
+        <v>0.0184263566666483</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>69</v>
@@ -6863,19 +6863,19 @@
         <v>75446</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>57521</v>
+        <v>58831</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>93659</v>
+        <v>94788</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02136969479315706</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01629264890369675</v>
+        <v>0.01666361291740618</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02652837696665094</v>
+        <v>0.02684812667828664</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>111</v>
@@ -6884,19 +6884,19 @@
         <v>121470</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>101725</v>
+        <v>100831</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>148309</v>
+        <v>145109</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0175632422657395</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01470838475738285</v>
+        <v>0.01457903737601208</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02144383690537686</v>
+        <v>0.02098125803704046</v>
       </c>
     </row>
     <row r="29">
@@ -6913,19 +6913,19 @@
         <v>3339611</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3325188</v>
+        <v>3323250</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3351820</v>
+        <v>3352484</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9864060964786029</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9821459652534931</v>
+        <v>0.9815736433333517</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9900122497913552</v>
+        <v>0.990208262575246</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3256</v>
@@ -6934,19 +6934,19 @@
         <v>3455067</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3436854</v>
+        <v>3435725</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3472992</v>
+        <v>3471682</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9786303052068429</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9734716230333491</v>
+        <v>0.9731518733217133</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9837073510963035</v>
+        <v>0.9833363870825937</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6437</v>
@@ -6955,19 +6955,19 @@
         <v>6794678</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6767839</v>
+        <v>6771039</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6814423</v>
+        <v>6815317</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9824367577342605</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9785561630946231</v>
+        <v>0.9790187419629595</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9852916152426171</v>
+        <v>0.9854209626239878</v>
       </c>
     </row>
     <row r="30">
@@ -7306,16 +7306,16 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3619</v>
+        <v>4025</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.002245837008151103</v>
+        <v>0.002245837008151104</v>
       </c>
       <c r="H4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01134920346853937</v>
+        <v>0.01262455077506308</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -7340,7 +7340,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>4171</v>
+        <v>3949</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001127843519818381</v>
@@ -7349,7 +7349,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.006569580404771423</v>
+        <v>0.006220073196993357</v>
       </c>
     </row>
     <row r="5">
@@ -7366,16 +7366,16 @@
         <v>318129</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>315226</v>
+        <v>314820</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>318845</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9977541629918488</v>
+        <v>0.997754162991849</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9886507965314607</v>
+        <v>0.9873754492249367</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -7400,7 +7400,7 @@
         <v>634190</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>630735</v>
+        <v>630957</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>634906</v>
@@ -7409,7 +7409,7 @@
         <v>0.9988721564801816</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9934304195952285</v>
+        <v>0.9937799268030066</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -7504,19 +7504,19 @@
         <v>4189</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1286</v>
+        <v>1277</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12595</v>
+        <v>12620</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.007935740903055604</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002436079894231484</v>
+        <v>0.002420083056074072</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02386154026785728</v>
+        <v>0.02391013379861009</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -7525,19 +7525,19 @@
         <v>3937</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1349</v>
+        <v>1339</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8076</v>
+        <v>7989</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.00720498652896931</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.002468283700771488</v>
+        <v>0.002451030556323958</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01477758114921288</v>
+        <v>0.0146183410475705</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>9</v>
@@ -7546,19 +7546,19 @@
         <v>8126</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3930</v>
+        <v>4090</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>16631</v>
+        <v>16258</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.007564013839412378</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.003658118284705765</v>
+        <v>0.003806938817699963</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01548026962677762</v>
+        <v>0.01513344867336341</v>
       </c>
     </row>
     <row r="8">
@@ -7575,19 +7575,19 @@
         <v>523635</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>515229</v>
+        <v>515204</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>526538</v>
+        <v>526547</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9920642590969443</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9761384597321427</v>
+        <v>0.9760898662013899</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9975639201057687</v>
+        <v>0.9975799169439259</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>711</v>
@@ -7596,19 +7596,19 @@
         <v>542557</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>538418</v>
+        <v>538505</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>545145</v>
+        <v>545155</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9927950134710307</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9852224188507871</v>
+        <v>0.9853816589524296</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9975317162992284</v>
+        <v>0.9975489694436761</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1088</v>
@@ -7617,19 +7617,19 @@
         <v>1066192</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1057687</v>
+        <v>1058060</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1070388</v>
+        <v>1070228</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9924359861605877</v>
+        <v>0.9924359861605875</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9845197303732226</v>
+        <v>0.9848665513266376</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9963418817152941</v>
+        <v>0.9961930611823003</v>
       </c>
     </row>
     <row r="9">
@@ -7721,19 +7721,19 @@
         <v>11877</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6750</v>
+        <v>5951</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21532</v>
+        <v>20176</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03798948841954154</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02158961374867635</v>
+        <v>0.01903444132950526</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06886887723466525</v>
+        <v>0.0645323846741454</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -7742,19 +7742,19 @@
         <v>10735</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6004</v>
+        <v>5884</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>19670</v>
+        <v>18245</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.03026087815418836</v>
+        <v>0.03026087815418837</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01692430193221005</v>
+        <v>0.01658594459094767</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05545049944288471</v>
+        <v>0.05143372293849404</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>24</v>
@@ -7763,19 +7763,19 @@
         <v>22612</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>14753</v>
+        <v>15037</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>33792</v>
+        <v>35277</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03388145348751358</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02210569906537088</v>
+        <v>0.02253167173247474</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05063358664792716</v>
+        <v>0.05285848456856675</v>
       </c>
     </row>
     <row r="11">
@@ -7792,19 +7792,19 @@
         <v>300768</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>291113</v>
+        <v>292469</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>305895</v>
+        <v>306694</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9620105115804584</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9311311227653347</v>
+        <v>0.9354676153258547</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9784103862513236</v>
+        <v>0.9809655586704947</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>520</v>
@@ -7813,19 +7813,19 @@
         <v>344003</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>335068</v>
+        <v>336493</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>348734</v>
+        <v>348854</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9697391218458118</v>
+        <v>0.9697391218458117</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9445495005571156</v>
+        <v>0.948566277061506</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9830756980677906</v>
+        <v>0.9834140554090522</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>866</v>
@@ -7834,19 +7834,19 @@
         <v>644770</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>633590</v>
+        <v>632105</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>652629</v>
+        <v>652345</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9661185465124864</v>
+        <v>0.9661185465124863</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9493664133520729</v>
+        <v>0.9471415154314334</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.977894300934629</v>
+        <v>0.9774683282675253</v>
       </c>
     </row>
     <row r="12">
@@ -7938,19 +7938,19 @@
         <v>9262</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4747</v>
+        <v>4856</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>20028</v>
+        <v>18955</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02486778831629812</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0127457275047576</v>
+        <v>0.01303783275786877</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05377308506800758</v>
+        <v>0.05089393286786344</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>18</v>
@@ -7959,19 +7959,19 @@
         <v>9903</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5713</v>
+        <v>5887</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>14736</v>
+        <v>15025</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.02363636983875886</v>
+        <v>0.02363636983875885</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01363748135203341</v>
+        <v>0.01405120148033174</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03517431088943058</v>
+        <v>0.03586396405780764</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>29</v>
@@ -7980,19 +7980,19 @@
         <v>19165</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>12722</v>
+        <v>13037</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>28994</v>
+        <v>28856</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.02421589915490625</v>
+        <v>0.02421589915490624</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01607468687806482</v>
+        <v>0.01647361204882991</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03663601045086627</v>
+        <v>0.03646227143786356</v>
       </c>
     </row>
     <row r="14">
@@ -8009,19 +8009,19 @@
         <v>363189</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>352423</v>
+        <v>353496</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>367704</v>
+        <v>367595</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.975132211683702</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9462269149319924</v>
+        <v>0.9491060671321356</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9872542724952426</v>
+        <v>0.9869621672421313</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>575</v>
@@ -8030,19 +8030,19 @@
         <v>409052</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>404219</v>
+        <v>403930</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>413242</v>
+        <v>413068</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9763636301612412</v>
+        <v>0.9763636301612409</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9648256891105693</v>
+        <v>0.9641360359421924</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9863625186479665</v>
+        <v>0.9859487985196684</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>855</v>
@@ -8051,19 +8051,19 @@
         <v>772241</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>762412</v>
+        <v>762550</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>778684</v>
+        <v>778369</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9757841008450938</v>
+        <v>0.9757841008450937</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9633639895491338</v>
+        <v>0.9635377285621368</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9839253131219354</v>
+        <v>0.9835263879511701</v>
       </c>
     </row>
     <row r="15">
@@ -8158,7 +8158,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3257</v>
+        <v>3559</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.003481835542399237</v>
@@ -8167,7 +8167,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01583614125459029</v>
+        <v>0.01730312766348159</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -8179,7 +8179,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1694</v>
+        <v>1748</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.00148524995205203</v>
@@ -8188,7 +8188,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.007415504401449943</v>
+        <v>0.007651855698595897</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2</v>
@@ -8200,16 +8200,16 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4003</v>
+        <v>3918</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.002431119419344853</v>
+        <v>0.002431119419344852</v>
       </c>
       <c r="V16" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.009221501753899181</v>
+        <v>0.009025098352926503</v>
       </c>
     </row>
     <row r="17">
@@ -8226,16 +8226,16 @@
         <v>204949</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>202408</v>
+        <v>202106</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>205665</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9965181644576006</v>
+        <v>0.9965181644576008</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9841638587454093</v>
+        <v>0.9826968723365187</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -8247,7 +8247,7 @@
         <v>228123</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>226768</v>
+        <v>226714</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>228462</v>
@@ -8256,7 +8256,7 @@
         <v>0.998514750047948</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.99258449559855</v>
+        <v>0.9923481443014039</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -8268,16 +8268,16 @@
         <v>433072</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>430124</v>
+        <v>430209</v>
       </c>
       <c r="T17" s="5" t="n">
         <v>434127</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9975688805806552</v>
+        <v>0.9975688805806551</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9907784982461008</v>
+        <v>0.9909749016470735</v>
       </c>
       <c r="W17" s="6" t="n">
         <v>1</v>
@@ -8375,7 +8375,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7086</v>
+        <v>6999</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.007507014324067914</v>
@@ -8384,7 +8384,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02617486255721013</v>
+        <v>0.02585427485299303</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>5</v>
@@ -8393,19 +8393,19 @@
         <v>2417</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>794</v>
+        <v>849</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5967</v>
+        <v>6030</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.009162457559038516</v>
+        <v>0.009162457559038512</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.003010597154829177</v>
+        <v>0.003220525229573546</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02262206928273309</v>
+        <v>0.02286182686875709</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>7</v>
@@ -8414,19 +8414,19 @@
         <v>4449</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1717</v>
+        <v>1847</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>9921</v>
+        <v>9256</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.008323962020378311</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.003212343360531679</v>
+        <v>0.003455291656502801</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01856256413609681</v>
+        <v>0.01731861216654698</v>
       </c>
     </row>
     <row r="20">
@@ -8443,7 +8443,7 @@
         <v>268675</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>263621</v>
+        <v>263708</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>270707</v>
@@ -8452,7 +8452,7 @@
         <v>0.9924929856759321</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9738251374427895</v>
+        <v>0.9741457251470073</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -8464,19 +8464,19 @@
         <v>261333</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>257783</v>
+        <v>257720</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>262956</v>
+        <v>262901</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9908375424409617</v>
+        <v>0.9908375424409613</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9773779307172668</v>
+        <v>0.9771381731312428</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9969894028451707</v>
+        <v>0.9967794747704264</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>824</v>
@@ -8485,19 +8485,19 @@
         <v>530008</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>524536</v>
+        <v>525201</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>532740</v>
+        <v>532610</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9916760379796216</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9814374358639031</v>
+        <v>0.9826813878334524</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9967876566394682</v>
+        <v>0.9965447083434973</v>
       </c>
     </row>
     <row r="21">
@@ -8589,19 +8589,19 @@
         <v>5048</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1434</v>
+        <v>1918</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>10606</v>
+        <v>11272</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.007025278719363865</v>
+        <v>0.007025278719363863</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.001996107642021706</v>
+        <v>0.00266875490060148</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01476119985424265</v>
+        <v>0.01568798313410406</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>18</v>
@@ -8610,19 +8610,19 @@
         <v>14866</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>9310</v>
+        <v>9100</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>24264</v>
+        <v>23564</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0193408989642012</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01211231848497393</v>
+        <v>0.01183893834420062</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03156690676983648</v>
+        <v>0.03065705516273962</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>23</v>
@@ -8631,19 +8631,19 @@
         <v>19914</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>12878</v>
+        <v>12784</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>30962</v>
+        <v>29792</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01339065491682069</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.008659410538495413</v>
+        <v>0.00859656208423633</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02081945577548606</v>
+        <v>0.02003309799166248</v>
       </c>
     </row>
     <row r="23">
@@ -8660,19 +8660,19 @@
         <v>713461</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>707903</v>
+        <v>707237</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>717075</v>
+        <v>716591</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9929747212806362</v>
+        <v>0.9929747212806361</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9852388001457576</v>
+        <v>0.9843120168658966</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9980038923579785</v>
+        <v>0.9973312450993986</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>937</v>
@@ -8681,19 +8681,19 @@
         <v>753772</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>744374</v>
+        <v>745074</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>759328</v>
+        <v>759538</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.980659101035799</v>
+        <v>0.9806591010357988</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9684330932301635</v>
+        <v>0.9693429448372601</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.987887681515026</v>
+        <v>0.9881610616557993</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1530</v>
@@ -8702,19 +8702,19 @@
         <v>1467233</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1456185</v>
+        <v>1457355</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1474269</v>
+        <v>1474363</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9866093450831793</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9791805442245138</v>
+        <v>0.9799669020083377</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9913405894615046</v>
+        <v>0.9914034379157636</v>
       </c>
     </row>
     <row r="24">
@@ -8806,19 +8806,19 @@
         <v>4028</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1134</v>
+        <v>1144</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>9126</v>
+        <v>9850</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.005047578215201484</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.001420522621699096</v>
+        <v>0.001433137785812544</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01143476372796478</v>
+        <v>0.0123419203007873</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>7</v>
@@ -8827,19 +8827,19 @@
         <v>5408</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2397</v>
+        <v>2403</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>10717</v>
+        <v>11317</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.006510563900458378</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.002885420290660416</v>
+        <v>0.002893596695950239</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01290216516250472</v>
+        <v>0.01362475109483555</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>11</v>
@@ -8848,19 +8848,19 @@
         <v>9436</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>4714</v>
+        <v>4924</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>16552</v>
+        <v>16522</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.005793684172620331</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.00289413284227466</v>
+        <v>0.003023460572494936</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01016261744167579</v>
+        <v>0.01014460753567143</v>
       </c>
     </row>
     <row r="26">
@@ -8877,19 +8877,19 @@
         <v>794044</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>788946</v>
+        <v>788222</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>796938</v>
+        <v>796928</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9949524217847984</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9885652362720354</v>
+        <v>0.9876580796992128</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.998579477378301</v>
+        <v>0.9985668622141876</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1054</v>
@@ -8898,19 +8898,19 @@
         <v>825200</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>819891</v>
+        <v>819291</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>828211</v>
+        <v>828205</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9934894360995415</v>
+        <v>0.9934894360995417</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9870978348374951</v>
+        <v>0.9863752489051647</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9971145797093395</v>
+        <v>0.9971064033040499</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1812</v>
@@ -8919,19 +8919,19 @@
         <v>1619244</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1612128</v>
+        <v>1612158</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1623966</v>
+        <v>1623756</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9942063158273797</v>
+        <v>0.9942063158273796</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9898373825583238</v>
+        <v>0.9898553924643286</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9971058671577249</v>
+        <v>0.996976539427505</v>
       </c>
     </row>
     <row r="27">
@@ -9023,19 +9023,19 @@
         <v>37868</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>26219</v>
+        <v>26267</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>52819</v>
+        <v>52477</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01074365020820381</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.007438672027563699</v>
+        <v>0.007452154428965952</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01498528482582845</v>
+        <v>0.01488839208021984</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>68</v>
@@ -9044,19 +9044,19 @@
         <v>47605</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>37628</v>
+        <v>37210</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>61165</v>
+        <v>61618</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01277046178530789</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01009411047760168</v>
+        <v>0.009982128828630166</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01640828122089821</v>
+        <v>0.01652964457744735</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>106</v>
@@ -9065,19 +9065,19 @@
         <v>85473</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>68705</v>
+        <v>69976</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>104874</v>
+        <v>103757</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01178542027123889</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.009473406639879391</v>
+        <v>0.00964868309739474</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01446059456256115</v>
+        <v>0.01430647763469524</v>
       </c>
     </row>
     <row r="29">
@@ -9094,19 +9094,19 @@
         <v>3486850</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3471899</v>
+        <v>3472241</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3498499</v>
+        <v>3498451</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9892563497917963</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9850147151741714</v>
+        <v>0.9851116079197801</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9925613279724361</v>
+        <v>0.992547845571034</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>5283</v>
@@ -9115,19 +9115,19 @@
         <v>3680101</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3666541</v>
+        <v>3666088</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3690078</v>
+        <v>3690496</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9872295382146919</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9835917187791021</v>
+        <v>0.9834703554225529</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9899058895223981</v>
+        <v>0.9900178711713699</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>8614</v>
@@ -9136,19 +9136,19 @@
         <v>7166951</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>7147550</v>
+        <v>7148667</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>7183719</v>
+        <v>7182448</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.9882145797287613</v>
+        <v>0.9882145797287609</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9855394054374388</v>
+        <v>0.9856935223653049</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9905265933601206</v>
+        <v>0.9903513169026054</v>
       </c>
     </row>
     <row r="30">
